--- a/data/SDG8.xlsx
+++ b/data/SDG8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A30F8-8AFA-BB45-A879-9206B1E51F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933DAC3-B23B-B243-A3F2-67B706D886FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2600" windowWidth="27240" windowHeight="16360" activeTab="3" xr2:uid="{3E50C267-28C2-4247-81AA-1C61E842AFC6}"/>
+    <workbookView xWindow="3580" yWindow="2600" windowWidth="27240" windowHeight="16360" activeTab="1" xr2:uid="{3E50C267-28C2-4247-81AA-1C61E842AFC6}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="776">
   <si>
     <t>keyword</t>
   </si>
@@ -2167,6 +2167,204 @@
   </si>
   <si>
     <t>fr_lem</t>
+  </si>
+  <si>
+    <t>Zugang zum Bankwesen</t>
+  </si>
+  <si>
+    <t>Zugang zum Versicherungsdienst</t>
+  </si>
+  <si>
+    <t>Arbeitereffekt hinzugefügt</t>
+  </si>
+  <si>
+    <t>Hilfe für den Handel</t>
+  </si>
+  <si>
+    <t>Jährliche Wachstumsrate</t>
+  </si>
+  <si>
+    <t>Bilanzrezession</t>
+  </si>
+  <si>
+    <t>Klimawandel</t>
+  </si>
+  <si>
+    <t>CO2-Emissionen</t>
+  </si>
+  <si>
+    <t>menschenwürdige Schaffung von Arbeitsplätzen</t>
+  </si>
+  <si>
+    <t>ordentliche Arbeit</t>
+  </si>
+  <si>
+    <t>Abholzung</t>
+  </si>
+  <si>
+    <t>Ungleichgewichtsmakroökonomie</t>
+  </si>
+  <si>
+    <t>dislozierte Arbeiterfinanzierung</t>
+  </si>
+  <si>
+    <t>die ökonomische Leistung</t>
+  </si>
+  <si>
+    <t>Diskriminierung am Arbeitsplatz</t>
+  </si>
+  <si>
+    <t>Arbeitsschutzgesetzgebung</t>
+  </si>
+  <si>
+    <t>Beschäftigungsrate</t>
+  </si>
+  <si>
+    <t>Beschäftigungs-Bevölkerungs-Verhältnis</t>
+  </si>
+  <si>
+    <t>Umweltrichtlinien</t>
+  </si>
+  <si>
+    <t>Kommission für Chancengleichheit</t>
+  </si>
+  <si>
+    <t>gleicher Zahltag</t>
+  </si>
+  <si>
+    <t>gleiches Entgelt für gleiche Arbeit</t>
+  </si>
+  <si>
+    <t>gleiche Vergütungskonvention</t>
+  </si>
+  <si>
+    <t>Landarbeit</t>
+  </si>
+  <si>
+    <t>ausländischer Arbeiter</t>
+  </si>
+  <si>
+    <t>Walddegradation</t>
+  </si>
+  <si>
+    <t>formelle Beschäftigung</t>
+  </si>
+  <si>
+    <t>fossile Brennstoffe</t>
+  </si>
+  <si>
+    <t>schwule Lohnunterschiede</t>
+  </si>
+  <si>
+    <t>BIP-Wachstum</t>
+  </si>
+  <si>
+    <t>Geschlechtsspezifisches Lohngefälle</t>
+  </si>
+  <si>
+    <t>Ghg Emission</t>
+  </si>
+  <si>
+    <t>Glasdach</t>
+  </si>
+  <si>
+    <t>globaler Beschäftigungspakt</t>
+  </si>
+  <si>
+    <t>globaler Rentenindex</t>
+  </si>
+  <si>
+    <t>globale Erwärmung</t>
+  </si>
+  <si>
+    <t>Regierungsrichtlinie</t>
+  </si>
+  <si>
+    <t>Wachstumsrezession</t>
+  </si>
+  <si>
+    <t>Gastarbeiter</t>
+  </si>
+  <si>
+    <t>informellen Wirtschaft</t>
+  </si>
+  <si>
+    <t>informellen Sektor</t>
+  </si>
+  <si>
+    <t>internationale Arbeitsorganisation</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Arbeitslosenansprüche</t>
+  </si>
+  <si>
+    <t>arbeitslose Erholung</t>
+  </si>
+  <si>
+    <t>Arbeitskonvention</t>
+  </si>
+  <si>
+    <t>Diskriminierung aufgrund der Arbeit</t>
+  </si>
+  <si>
+    <t>Ausbeutung von Arbeitskräften</t>
+  </si>
+  <si>
+    <t>Arbeitskraft</t>
+  </si>
+  <si>
+    <t>Arbeitsmarktgebiet</t>
+  </si>
+  <si>
+    <t>Arbeitsstandard</t>
+  </si>
+  <si>
+    <t>obligatorische Pensionierung</t>
+  </si>
+  <si>
+    <t>Wanderarbeiter</t>
+  </si>
+  <si>
+    <t>Todesfall am Arbeitsplatz</t>
+  </si>
+  <si>
+    <t>Überqualifikation</t>
+  </si>
+  <si>
+    <t>Richtlinienänderung</t>
+  </si>
+  <si>
+    <t>Verschmutzung</t>
+  </si>
+  <si>
+    <t>öffentliche Ordnung</t>
+  </si>
+  <si>
+    <t>Neuzuweisungszentren</t>
+  </si>
+  <si>
+    <t>nachhaltigen Tourismus</t>
+  </si>
+  <si>
+    <t>Technologie-Upgrade</t>
+  </si>
+  <si>
+    <t>Frauen in der Belegschaft</t>
+  </si>
+  <si>
+    <t>Arbeitsverletzung</t>
+  </si>
+  <si>
+    <t>Arbeiterrechte</t>
+  </si>
+  <si>
+    <t>Verletzungen am Arbeitsplatz</t>
+  </si>
+  <si>
+    <t>Jugendbeschäftigung</t>
   </si>
 </sst>
 </file>
@@ -4314,14 +4512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377AACFA-D219-5548-A3DA-6EC57258E49A}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4349,6 +4548,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4361,6 +4563,9 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>710</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4373,6 +4578,9 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
@@ -4385,6 +4593,9 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>711</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
@@ -4397,6 +4608,9 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C6" t="s">
+        <v>712</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
@@ -4409,6 +4623,9 @@
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C7" t="s">
+        <v>713</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
@@ -4421,6 +4638,9 @@
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
@@ -4433,6 +4653,9 @@
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C9" t="s">
+        <v>714</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
@@ -4445,6 +4668,9 @@
       <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C10" t="s">
+        <v>715</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
@@ -4457,6 +4683,9 @@
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
       </c>
@@ -4469,6 +4698,9 @@
       <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
@@ -4481,6 +4713,9 @@
       <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>63</v>
       </c>
@@ -4493,6 +4728,9 @@
       <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
@@ -4505,6 +4743,9 @@
       <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>57</v>
       </c>
@@ -4517,6 +4758,9 @@
       <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C16" t="s">
+        <v>716</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
@@ -4529,6 +4773,9 @@
       <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="C17" t="s">
+        <v>717</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
       </c>
@@ -4541,6 +4788,9 @@
       <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>86</v>
       </c>
@@ -4553,6 +4803,9 @@
       <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="C19" t="s">
+        <v>718</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
@@ -4565,6 +4818,9 @@
       <c r="B20" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="C20" t="s">
+        <v>719</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>98</v>
       </c>
@@ -4577,6 +4833,9 @@
       <c r="B21" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C21" t="s">
+        <v>720</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>103</v>
       </c>
@@ -4589,6 +4848,9 @@
       <c r="B22" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>107</v>
       </c>
@@ -4601,6 +4863,9 @@
       <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>113</v>
       </c>
@@ -4613,6 +4878,9 @@
       <c r="B24" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="C24" t="s">
+        <v>721</v>
+      </c>
       <c r="D24" s="4" t="s">
         <v>117</v>
       </c>
@@ -4625,6 +4893,9 @@
       <c r="B25" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C25" t="s">
+        <v>722</v>
+      </c>
       <c r="D25" s="4" t="s">
         <v>122</v>
       </c>
@@ -4637,6 +4908,9 @@
       <c r="B26" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
       <c r="D26" s="4" t="s">
         <v>127</v>
       </c>
@@ -4649,6 +4923,9 @@
       <c r="B27" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>133</v>
       </c>
@@ -4661,6 +4938,9 @@
       <c r="B28" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
       <c r="D28" s="4" t="s">
         <v>138</v>
       </c>
@@ -4673,6 +4953,9 @@
       <c r="B29" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
       <c r="D29" s="4" t="s">
         <v>143</v>
       </c>
@@ -4685,6 +4968,9 @@
       <c r="B30" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C30" t="s">
+        <v>723</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>148</v>
       </c>
@@ -4697,6 +4983,9 @@
       <c r="B31" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>154</v>
       </c>
@@ -4709,6 +4998,9 @@
       <c r="B32" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
       <c r="D32" s="4" t="s">
         <v>159</v>
       </c>
@@ -4721,6 +5013,9 @@
       <c r="B33" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
       <c r="D33" s="4" t="s">
         <v>164</v>
       </c>
@@ -4733,6 +5028,9 @@
       <c r="B34" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
       <c r="D34" s="4" t="s">
         <v>169</v>
       </c>
@@ -4745,6 +5043,9 @@
       <c r="B35" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C35" t="s">
+        <v>724</v>
+      </c>
       <c r="D35" s="4" t="s">
         <v>173</v>
       </c>
@@ -4757,6 +5058,9 @@
       <c r="B36" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
       <c r="D36" s="4" t="s">
         <v>179</v>
       </c>
@@ -4769,6 +5073,9 @@
       <c r="B37" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="C37" t="s">
+        <v>725</v>
+      </c>
       <c r="D37" s="4" t="s">
         <v>184</v>
       </c>
@@ -4781,6 +5088,9 @@
       <c r="B38" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C38" t="s">
+        <v>726</v>
+      </c>
       <c r="D38" s="4" t="s">
         <v>190</v>
       </c>
@@ -4793,6 +5103,9 @@
       <c r="B39" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="C39" t="s">
+        <v>727</v>
+      </c>
       <c r="D39" s="4" t="s">
         <v>194</v>
       </c>
@@ -4805,6 +5118,9 @@
       <c r="B40" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
       <c r="D40" s="4" t="s">
         <v>200</v>
       </c>
@@ -4817,6 +5133,9 @@
       <c r="B41" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
       <c r="D41" s="4" t="s">
         <v>205</v>
       </c>
@@ -4829,6 +5148,9 @@
       <c r="B42" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
       <c r="D42" s="4" t="s">
         <v>210</v>
       </c>
@@ -4841,6 +5163,9 @@
       <c r="B43" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
       <c r="D43" s="4" t="s">
         <v>216</v>
       </c>
@@ -4853,6 +5178,9 @@
       <c r="B44" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>221</v>
       </c>
@@ -4865,6 +5193,9 @@
       <c r="B45" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="C45" t="s">
+        <v>728</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>227</v>
       </c>
@@ -4877,6 +5208,9 @@
       <c r="B46" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="C46" t="s">
+        <v>232</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>232</v>
       </c>
@@ -4889,6 +5223,9 @@
       <c r="B47" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
       <c r="D47" s="4" t="s">
         <v>221</v>
       </c>
@@ -4901,6 +5238,9 @@
       <c r="B48" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="C48" t="s">
+        <v>729</v>
+      </c>
       <c r="D48" s="4" t="s">
         <v>238</v>
       </c>
@@ -4913,6 +5253,9 @@
       <c r="B49" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="C49" t="s">
+        <v>730</v>
+      </c>
       <c r="D49" s="4" t="s">
         <v>243</v>
       </c>
@@ -4925,6 +5268,9 @@
       <c r="B50" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="C50" t="s">
+        <v>731</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>249</v>
       </c>
@@ -4937,6 +5283,9 @@
       <c r="B51" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="C51" t="s">
+        <v>732</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>255</v>
       </c>
@@ -4949,6 +5298,9 @@
       <c r="B52" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="C52" t="s">
+        <v>261</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>261</v>
       </c>
@@ -4961,6 +5313,9 @@
       <c r="B53" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="C53" t="s">
+        <v>733</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>267</v>
       </c>
@@ -4973,6 +5328,9 @@
       <c r="B54" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="C54" t="s">
+        <v>273</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>273</v>
       </c>
@@ -4985,6 +5343,9 @@
       <c r="B55" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="C55" t="s">
+        <v>278</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>278</v>
       </c>
@@ -4997,6 +5358,9 @@
       <c r="B56" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="C56" t="s">
+        <v>282</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>282</v>
       </c>
@@ -5009,6 +5373,9 @@
       <c r="B57" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="C57" t="s">
+        <v>287</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>287</v>
       </c>
@@ -5021,6 +5388,9 @@
       <c r="B58" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="C58" t="s">
+        <v>734</v>
+      </c>
       <c r="D58" s="4" t="s">
         <v>292</v>
       </c>
@@ -5033,6 +5403,9 @@
       <c r="B59" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="C59" t="s">
+        <v>735</v>
+      </c>
       <c r="D59" s="4" t="s">
         <v>296</v>
       </c>
@@ -5045,6 +5418,9 @@
       <c r="B60" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="C60" t="s">
+        <v>736</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>302</v>
       </c>
@@ -5057,6 +5433,9 @@
       <c r="B61" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>308</v>
       </c>
@@ -5069,6 +5448,9 @@
       <c r="B62" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="C62" t="s">
+        <v>737</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>313</v>
       </c>
@@ -5081,6 +5463,9 @@
       <c r="B63" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="C63" t="s">
+        <v>738</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>317</v>
       </c>
@@ -5093,6 +5478,9 @@
       <c r="B64" s="2" t="s">
         <v>322</v>
       </c>
+      <c r="C64" t="s">
+        <v>739</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>322</v>
       </c>
@@ -5105,6 +5493,9 @@
       <c r="B65" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="C65" t="s">
+        <v>740</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>328</v>
       </c>
@@ -5117,6 +5508,9 @@
       <c r="B66" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="C66" t="s">
+        <v>741</v>
+      </c>
       <c r="D66" s="4" t="s">
         <v>334</v>
       </c>
@@ -5129,6 +5523,9 @@
       <c r="B67" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="C67" t="s">
+        <v>742</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>339</v>
       </c>
@@ -5141,6 +5538,9 @@
       <c r="B68" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="C68" t="s">
+        <v>743</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>344</v>
       </c>
@@ -5153,6 +5553,9 @@
       <c r="B69" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="C69" t="s">
+        <v>744</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>348</v>
       </c>
@@ -5165,6 +5568,9 @@
       <c r="B70" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="C70" t="s">
+        <v>745</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>354</v>
       </c>
@@ -5177,6 +5583,9 @@
       <c r="B71" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="C71" t="s">
+        <v>746</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>358</v>
       </c>
@@ -5189,6 +5598,9 @@
       <c r="B72" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="C72" t="s">
+        <v>362</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>362</v>
       </c>
@@ -5201,6 +5613,9 @@
       <c r="B73" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="C73" t="s">
+        <v>747</v>
+      </c>
       <c r="D73" s="4" t="s">
         <v>366</v>
       </c>
@@ -5213,6 +5628,9 @@
       <c r="B74" s="2" t="s">
         <v>372</v>
       </c>
+      <c r="C74" t="s">
+        <v>372</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>372</v>
       </c>
@@ -5225,6 +5643,9 @@
       <c r="B75" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="C75" t="s">
+        <v>379</v>
+      </c>
       <c r="D75" s="4" t="s">
         <v>379</v>
       </c>
@@ -5237,6 +5658,9 @@
       <c r="B76" s="2" t="s">
         <v>384</v>
       </c>
+      <c r="C76" t="s">
+        <v>748</v>
+      </c>
       <c r="D76" s="4" t="s">
         <v>384</v>
       </c>
@@ -5249,6 +5673,9 @@
       <c r="B77" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="C77" t="s">
+        <v>389</v>
+      </c>
       <c r="D77" s="4" t="s">
         <v>389</v>
       </c>
@@ -5261,6 +5688,9 @@
       <c r="B78" s="2" t="s">
         <v>394</v>
       </c>
+      <c r="C78" t="s">
+        <v>394</v>
+      </c>
       <c r="D78" s="4" t="s">
         <v>394</v>
       </c>
@@ -5273,6 +5703,9 @@
       <c r="B79" s="2" t="s">
         <v>399</v>
       </c>
+      <c r="C79" t="s">
+        <v>749</v>
+      </c>
       <c r="D79" s="4" t="s">
         <v>399</v>
       </c>
@@ -5285,6 +5718,9 @@
       <c r="B80" s="2" t="s">
         <v>404</v>
       </c>
+      <c r="C80" t="s">
+        <v>404</v>
+      </c>
       <c r="D80" s="4" t="s">
         <v>404</v>
       </c>
@@ -5297,6 +5733,9 @@
       <c r="B81" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="C81" t="s">
+        <v>750</v>
+      </c>
       <c r="D81" s="4" t="s">
         <v>410</v>
       </c>
@@ -5309,6 +5748,9 @@
       <c r="B82" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="C82" t="s">
+        <v>416</v>
+      </c>
       <c r="D82" s="4" t="s">
         <v>416</v>
       </c>
@@ -5321,6 +5763,9 @@
       <c r="B83" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="C83" t="s">
+        <v>421</v>
+      </c>
       <c r="D83" s="4" t="s">
         <v>421</v>
       </c>
@@ -5333,6 +5778,9 @@
       <c r="B84" s="2" t="s">
         <v>425</v>
       </c>
+      <c r="C84" t="s">
+        <v>751</v>
+      </c>
       <c r="D84" s="4" t="s">
         <v>425</v>
       </c>
@@ -5345,6 +5793,9 @@
       <c r="B85" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="C85" t="s">
+        <v>752</v>
+      </c>
       <c r="D85" s="4" t="s">
         <v>430</v>
       </c>
@@ -5357,6 +5808,9 @@
       <c r="B86" s="2" t="s">
         <v>435</v>
       </c>
+      <c r="C86" t="s">
+        <v>435</v>
+      </c>
       <c r="D86" s="4" t="s">
         <v>435</v>
       </c>
@@ -5369,6 +5823,9 @@
       <c r="B87" s="2" t="s">
         <v>440</v>
       </c>
+      <c r="C87" t="s">
+        <v>753</v>
+      </c>
       <c r="D87" s="4" t="s">
         <v>440</v>
       </c>
@@ -5381,6 +5838,9 @@
       <c r="B88" s="2" t="s">
         <v>446</v>
       </c>
+      <c r="C88" t="s">
+        <v>754</v>
+      </c>
       <c r="D88" s="4" t="s">
         <v>446</v>
       </c>
@@ -5393,6 +5853,9 @@
       <c r="B89" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="C89" t="s">
+        <v>451</v>
+      </c>
       <c r="D89" s="4" t="s">
         <v>451</v>
       </c>
@@ -5405,6 +5868,9 @@
       <c r="B90" s="2" t="s">
         <v>456</v>
       </c>
+      <c r="C90" t="s">
+        <v>755</v>
+      </c>
       <c r="D90" s="4" t="s">
         <v>456</v>
       </c>
@@ -5417,6 +5883,9 @@
       <c r="B91" s="2" t="s">
         <v>461</v>
       </c>
+      <c r="C91" t="s">
+        <v>756</v>
+      </c>
       <c r="D91" s="4" t="s">
         <v>461</v>
       </c>
@@ -5429,6 +5898,9 @@
       <c r="B92" s="2" t="s">
         <v>465</v>
       </c>
+      <c r="C92" t="s">
+        <v>757</v>
+      </c>
       <c r="D92" s="4" t="s">
         <v>465</v>
       </c>
@@ -5441,6 +5913,9 @@
       <c r="B93" s="2" t="s">
         <v>470</v>
       </c>
+      <c r="C93" t="s">
+        <v>758</v>
+      </c>
       <c r="D93" s="4" t="s">
         <v>470</v>
       </c>
@@ -5453,6 +5928,9 @@
       <c r="B94" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="C94" t="s">
+        <v>475</v>
+      </c>
       <c r="D94" s="4" t="s">
         <v>475</v>
       </c>
@@ -5465,6 +5943,9 @@
       <c r="B95" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="C95" t="s">
+        <v>759</v>
+      </c>
       <c r="D95" s="4" t="s">
         <v>479</v>
       </c>
@@ -5477,6 +5958,9 @@
       <c r="B96" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="C96" t="s">
+        <v>484</v>
+      </c>
       <c r="D96" s="4" t="s">
         <v>484</v>
       </c>
@@ -5489,6 +5973,9 @@
       <c r="B97" s="2" t="s">
         <v>384</v>
       </c>
+      <c r="C97" t="s">
+        <v>384</v>
+      </c>
       <c r="D97" s="4" t="s">
         <v>384</v>
       </c>
@@ -5501,6 +5988,9 @@
       <c r="B98" s="2" t="s">
         <v>494</v>
       </c>
+      <c r="C98" t="s">
+        <v>494</v>
+      </c>
       <c r="D98" s="4" t="s">
         <v>494</v>
       </c>
@@ -5513,6 +6003,9 @@
       <c r="B99" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="C99" t="s">
+        <v>499</v>
+      </c>
       <c r="D99" s="4" t="s">
         <v>499</v>
       </c>
@@ -5525,6 +6018,9 @@
       <c r="B100" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="C100" t="s">
+        <v>475</v>
+      </c>
       <c r="D100" s="4" t="s">
         <v>475</v>
       </c>
@@ -5537,6 +6033,9 @@
       <c r="B101" s="2" t="s">
         <v>506</v>
       </c>
+      <c r="C101" t="s">
+        <v>760</v>
+      </c>
       <c r="D101" s="4" t="s">
         <v>506</v>
       </c>
@@ -5549,6 +6048,9 @@
       <c r="B102" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="C102" t="s">
+        <v>761</v>
+      </c>
       <c r="D102" s="4" t="s">
         <v>511</v>
       </c>
@@ -5561,6 +6063,9 @@
       <c r="B103" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="C103" t="s">
+        <v>516</v>
+      </c>
       <c r="D103" s="4" t="s">
         <v>516</v>
       </c>
@@ -5573,6 +6078,9 @@
       <c r="B104" s="2" t="s">
         <v>384</v>
       </c>
+      <c r="C104" t="s">
+        <v>762</v>
+      </c>
       <c r="D104" s="4" t="s">
         <v>384</v>
       </c>
@@ -5585,6 +6093,9 @@
       <c r="B105" s="2" t="s">
         <v>524</v>
       </c>
+      <c r="C105" t="s">
+        <v>524</v>
+      </c>
       <c r="D105" s="4" t="s">
         <v>524</v>
       </c>
@@ -5597,6 +6108,9 @@
       <c r="B106" s="2" t="s">
         <v>529</v>
       </c>
+      <c r="C106" t="s">
+        <v>529</v>
+      </c>
       <c r="D106" s="4" t="s">
         <v>529</v>
       </c>
@@ -5609,6 +6123,9 @@
       <c r="B107" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="C107" t="s">
+        <v>534</v>
+      </c>
       <c r="D107" s="4" t="s">
         <v>534</v>
       </c>
@@ -5621,6 +6138,9 @@
       <c r="B108" s="2" t="s">
         <v>540</v>
       </c>
+      <c r="C108" t="s">
+        <v>540</v>
+      </c>
       <c r="D108" s="4" t="s">
         <v>540</v>
       </c>
@@ -5633,6 +6153,9 @@
       <c r="B109" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="C109" t="s">
+        <v>763</v>
+      </c>
       <c r="D109" s="4" t="s">
         <v>544</v>
       </c>
@@ -5645,6 +6168,9 @@
       <c r="B110" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="C110" t="s">
+        <v>534</v>
+      </c>
       <c r="D110" s="4" t="s">
         <v>534</v>
       </c>
@@ -5657,6 +6183,9 @@
       <c r="B111" s="2" t="s">
         <v>549</v>
       </c>
+      <c r="C111" t="s">
+        <v>549</v>
+      </c>
       <c r="D111" s="4" t="s">
         <v>549</v>
       </c>
@@ -5669,6 +6198,9 @@
       <c r="B112" s="2" t="s">
         <v>553</v>
       </c>
+      <c r="C112" t="s">
+        <v>553</v>
+      </c>
       <c r="D112" s="4" t="s">
         <v>553</v>
       </c>
@@ -5681,6 +6213,9 @@
       <c r="B113" s="2" t="s">
         <v>556</v>
       </c>
+      <c r="C113" t="s">
+        <v>764</v>
+      </c>
       <c r="D113" s="4" t="s">
         <v>556</v>
       </c>
@@ -5693,6 +6228,9 @@
       <c r="B114" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="C114" t="s">
+        <v>560</v>
+      </c>
       <c r="D114" s="4" t="s">
         <v>560</v>
       </c>
@@ -5705,6 +6243,9 @@
       <c r="B115" s="2" t="s">
         <v>566</v>
       </c>
+      <c r="C115" t="s">
+        <v>566</v>
+      </c>
       <c r="D115" s="4" t="s">
         <v>566</v>
       </c>
@@ -5717,6 +6258,9 @@
       <c r="B116" s="2" t="s">
         <v>570</v>
       </c>
+      <c r="C116" t="s">
+        <v>765</v>
+      </c>
       <c r="D116" s="4" t="s">
         <v>570</v>
       </c>
@@ -5729,6 +6273,9 @@
       <c r="B117" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="C117" t="s">
+        <v>574</v>
+      </c>
       <c r="D117" s="4" t="s">
         <v>574</v>
       </c>
@@ -5741,6 +6288,9 @@
       <c r="B118" s="2" t="s">
         <v>579</v>
       </c>
+      <c r="C118" t="s">
+        <v>579</v>
+      </c>
       <c r="D118" s="4" t="s">
         <v>579</v>
       </c>
@@ -5753,6 +6303,9 @@
       <c r="B119" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="C119" t="s">
+        <v>766</v>
+      </c>
       <c r="D119" s="4" t="s">
         <v>232</v>
       </c>
@@ -5765,6 +6318,9 @@
       <c r="B120" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="C120" t="s">
+        <v>586</v>
+      </c>
       <c r="D120" s="4" t="s">
         <v>586</v>
       </c>
@@ -5777,6 +6333,9 @@
       <c r="B121" s="2" t="s">
         <v>591</v>
       </c>
+      <c r="C121" t="s">
+        <v>767</v>
+      </c>
       <c r="D121" s="4" t="s">
         <v>591</v>
       </c>
@@ -5789,6 +6348,9 @@
       <c r="B122" s="2" t="s">
         <v>596</v>
       </c>
+      <c r="C122" t="s">
+        <v>768</v>
+      </c>
       <c r="D122" s="4" t="s">
         <v>596</v>
       </c>
@@ -5801,6 +6363,9 @@
       <c r="B123" s="2" t="s">
         <v>600</v>
       </c>
+      <c r="C123" t="s">
+        <v>600</v>
+      </c>
       <c r="D123" s="4" t="s">
         <v>600</v>
       </c>
@@ -5813,6 +6378,9 @@
       <c r="B124" s="2" t="s">
         <v>604</v>
       </c>
+      <c r="C124" t="s">
+        <v>604</v>
+      </c>
       <c r="D124" s="4" t="s">
         <v>604</v>
       </c>
@@ -5825,6 +6393,9 @@
       <c r="B125" s="2" t="s">
         <v>609</v>
       </c>
+      <c r="C125" t="s">
+        <v>609</v>
+      </c>
       <c r="D125" s="4" t="s">
         <v>609</v>
       </c>
@@ -5837,6 +6408,9 @@
       <c r="B126" s="2" t="s">
         <v>615</v>
       </c>
+      <c r="C126" t="s">
+        <v>615</v>
+      </c>
       <c r="D126" s="4" t="s">
         <v>615</v>
       </c>
@@ -5849,6 +6423,9 @@
       <c r="B127" s="2" t="s">
         <v>620</v>
       </c>
+      <c r="C127" t="s">
+        <v>620</v>
+      </c>
       <c r="D127" s="4" t="s">
         <v>620</v>
       </c>
@@ -5861,6 +6438,9 @@
       <c r="B128" s="2" t="s">
         <v>625</v>
       </c>
+      <c r="C128" t="s">
+        <v>625</v>
+      </c>
       <c r="D128" s="4" t="s">
         <v>625</v>
       </c>
@@ -5873,6 +6453,9 @@
       <c r="B129" s="2" t="s">
         <v>629</v>
       </c>
+      <c r="C129" t="s">
+        <v>629</v>
+      </c>
       <c r="D129" s="4" t="s">
         <v>629</v>
       </c>
@@ -5885,6 +6468,9 @@
       <c r="B130" s="2" t="s">
         <v>635</v>
       </c>
+      <c r="C130" t="s">
+        <v>769</v>
+      </c>
       <c r="D130" s="4" t="s">
         <v>635</v>
       </c>
@@ -5897,6 +6483,9 @@
       <c r="B131" s="2" t="s">
         <v>641</v>
       </c>
+      <c r="C131" t="s">
+        <v>641</v>
+      </c>
       <c r="D131" s="4" t="s">
         <v>641</v>
       </c>
@@ -5909,6 +6498,9 @@
       <c r="B132" s="2" t="s">
         <v>646</v>
       </c>
+      <c r="C132" t="s">
+        <v>770</v>
+      </c>
       <c r="D132" s="4" t="s">
         <v>646</v>
       </c>
@@ -5921,6 +6513,9 @@
       <c r="B133" s="2" t="s">
         <v>648</v>
       </c>
+      <c r="C133" t="s">
+        <v>648</v>
+      </c>
       <c r="D133" s="4" t="s">
         <v>648</v>
       </c>
@@ -5933,6 +6528,9 @@
       <c r="B134" s="2" t="s">
         <v>654</v>
       </c>
+      <c r="C134" t="s">
+        <v>372</v>
+      </c>
       <c r="D134" s="4" t="s">
         <v>654</v>
       </c>
@@ -5945,6 +6543,9 @@
       <c r="B135" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="C135" t="s">
+        <v>451</v>
+      </c>
       <c r="D135" s="4" t="s">
         <v>451</v>
       </c>
@@ -5957,6 +6558,9 @@
       <c r="B136" s="2" t="s">
         <v>660</v>
       </c>
+      <c r="C136" t="s">
+        <v>660</v>
+      </c>
       <c r="D136" s="4" t="s">
         <v>660</v>
       </c>
@@ -5969,6 +6573,9 @@
       <c r="B137" s="2" t="s">
         <v>664</v>
       </c>
+      <c r="C137" t="s">
+        <v>771</v>
+      </c>
       <c r="D137" s="4" t="s">
         <v>664</v>
       </c>
@@ -5981,6 +6588,9 @@
       <c r="B138" s="2" t="s">
         <v>671</v>
       </c>
+      <c r="C138" t="s">
+        <v>671</v>
+      </c>
       <c r="D138" s="4" t="s">
         <v>671</v>
       </c>
@@ -5993,6 +6603,9 @@
       <c r="B139" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="C139" t="s">
+        <v>772</v>
+      </c>
       <c r="D139" s="4" t="s">
         <v>534</v>
       </c>
@@ -6005,6 +6618,9 @@
       <c r="B140" s="2" t="s">
         <v>676</v>
       </c>
+      <c r="C140" t="s">
+        <v>676</v>
+      </c>
       <c r="D140" s="4" t="s">
         <v>676</v>
       </c>
@@ -6017,6 +6633,9 @@
       <c r="B141" s="2" t="s">
         <v>682</v>
       </c>
+      <c r="C141" t="s">
+        <v>682</v>
+      </c>
       <c r="D141" s="4" t="s">
         <v>682</v>
       </c>
@@ -6029,6 +6648,9 @@
       <c r="B142" s="2" t="s">
         <v>684</v>
       </c>
+      <c r="C142" t="s">
+        <v>773</v>
+      </c>
       <c r="D142" s="4" t="s">
         <v>684</v>
       </c>
@@ -6041,6 +6663,9 @@
       <c r="B143" s="2" t="s">
         <v>689</v>
       </c>
+      <c r="C143" t="s">
+        <v>689</v>
+      </c>
       <c r="D143" s="4" t="s">
         <v>689</v>
       </c>
@@ -6053,6 +6678,9 @@
       <c r="B144" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="C144" t="s">
+        <v>774</v>
+      </c>
       <c r="D144" s="4" t="s">
         <v>534</v>
       </c>
@@ -6064,6 +6692,9 @@
       </c>
       <c r="B145" s="2" t="s">
         <v>694</v>
+      </c>
+      <c r="C145" t="s">
+        <v>775</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>694</v>
@@ -8277,7 +8908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659FC18-FBB2-FD46-A4C1-2B9BFED2226E}">
   <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
